--- a/stock_historical_data/1mo/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1mo/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>1</v>
       </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,60 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B40" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>22</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1mo/EASEMYTRIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>backup</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>detect_structure</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>1</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>1</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>1</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>2</v>
       </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>2</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>2</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>1</v>
       </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2587,7 +2706,12 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/EASEMYTRIP.NS.xlsx
+++ b/stock_historical_data/1mo/EASEMYTRIP.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B2" t="n">
-        <v>13.12812519073486</v>
+        <v>6.532021669273501</v>
       </c>
       <c r="C2" t="n">
-        <v>13.53750038146973</v>
+        <v>7.20138129797106</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0625</v>
+        <v>5.137908016389054</v>
       </c>
       <c r="E2" t="n">
-        <v>11.71249961853027</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11.53451919555664</v>
-      </c>
+        <v>6.373530387878418</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>464955648</v>
+        <v>2570199520</v>
       </c>
       <c r="H2" t="n">
         <v>2021</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B3" t="n">
-        <v>11.5625</v>
+        <v>13.12812519073486</v>
       </c>
       <c r="C3" t="n">
-        <v>20.890625</v>
+        <v>13.53750038146973</v>
       </c>
       <c r="D3" t="n">
-        <v>11.40937519073486</v>
+        <v>10.0625</v>
       </c>
       <c r="E3" t="n">
-        <v>20.5</v>
+        <v>11.71249961853027</v>
       </c>
       <c r="F3" t="n">
-        <v>20.40864753723145</v>
+        <v>11.53451919555664</v>
       </c>
       <c r="G3" t="n">
-        <v>973192400</v>
+        <v>464955648</v>
       </c>
       <c r="H3" t="n">
         <v>2021</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B4" t="n">
-        <v>20.75</v>
+        <v>11.5625</v>
       </c>
       <c r="C4" t="n">
-        <v>28.39999961853027</v>
+        <v>20.890625</v>
       </c>
       <c r="D4" t="n">
-        <v>19.58437538146973</v>
+        <v>11.40937519073486</v>
       </c>
       <c r="E4" t="n">
-        <v>24.625</v>
+        <v>20.5</v>
       </c>
       <c r="F4" t="n">
-        <v>24.5152645111084</v>
+        <v>20.40864753723145</v>
       </c>
       <c r="G4" t="n">
-        <v>994624848</v>
+        <v>973192400</v>
       </c>
       <c r="H4" t="n">
         <v>2021</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B5" t="n">
-        <v>24.69375038146973</v>
+        <v>20.75</v>
       </c>
       <c r="C5" t="n">
-        <v>29.1875</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="D5" t="n">
-        <v>24.29062461853027</v>
+        <v>19.58437538146973</v>
       </c>
       <c r="E5" t="n">
-        <v>25.56875038146973</v>
+        <v>24.625</v>
       </c>
       <c r="F5" t="n">
-        <v>25.45480918884277</v>
+        <v>24.5152645111084</v>
       </c>
       <c r="G5" t="n">
-        <v>472729552</v>
+        <v>994624848</v>
       </c>
       <c r="H5" t="n">
         <v>2021</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B6" t="n">
-        <v>26.25</v>
+        <v>24.69375038146973</v>
       </c>
       <c r="C6" t="n">
-        <v>31.70624923706055</v>
+        <v>29.1875</v>
       </c>
       <c r="D6" t="n">
-        <v>25.5625</v>
+        <v>24.29062461853027</v>
       </c>
       <c r="E6" t="n">
-        <v>28.12812423706055</v>
+        <v>25.56875038146973</v>
       </c>
       <c r="F6" t="n">
-        <v>28.00277709960938</v>
+        <v>25.45480918884277</v>
       </c>
       <c r="G6" t="n">
-        <v>681833232</v>
+        <v>472729552</v>
       </c>
       <c r="H6" t="n">
         <v>2021</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B7" t="n">
-        <v>28.23125076293945</v>
+        <v>26.25</v>
       </c>
       <c r="C7" t="n">
-        <v>44.85312652587891</v>
+        <v>31.70624923706055</v>
       </c>
       <c r="D7" t="n">
-        <v>27.59375</v>
+        <v>25.5625</v>
       </c>
       <c r="E7" t="n">
-        <v>37.14687347412109</v>
+        <v>28.12812423706055</v>
       </c>
       <c r="F7" t="n">
-        <v>36.9813346862793</v>
+        <v>28.00277709960938</v>
       </c>
       <c r="G7" t="n">
-        <v>792759824</v>
+        <v>681833232</v>
       </c>
       <c r="H7" t="n">
         <v>2021</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B8" t="n">
-        <v>37.08750152587891</v>
+        <v>28.23125076293945</v>
       </c>
       <c r="C8" t="n">
-        <v>39.18125152587891</v>
+        <v>44.85312652587891</v>
       </c>
       <c r="D8" t="n">
-        <v>28.22500038146973</v>
+        <v>27.59375</v>
       </c>
       <c r="E8" t="n">
-        <v>29.91562461853027</v>
+        <v>37.14687347412109</v>
       </c>
       <c r="F8" t="n">
-        <v>29.78231239318848</v>
+        <v>36.9813346862793</v>
       </c>
       <c r="G8" t="n">
-        <v>123750288</v>
+        <v>792759824</v>
       </c>
       <c r="H8" t="n">
         <v>2021</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B9" t="n">
+        <v>37.08750152587891</v>
+      </c>
+      <c r="C9" t="n">
+        <v>39.18125152587891</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.22500038146973</v>
+      </c>
+      <c r="E9" t="n">
         <v>29.91562461853027</v>
       </c>
-      <c r="C9" t="n">
-        <v>34.96250152587891</v>
-      </c>
-      <c r="D9" t="n">
-        <v>29.01250076293945</v>
-      </c>
-      <c r="E9" t="n">
-        <v>31.39687538146973</v>
-      </c>
       <c r="F9" t="n">
-        <v>31.2569637298584</v>
+        <v>29.78231239318848</v>
       </c>
       <c r="G9" t="n">
-        <v>81330512</v>
+        <v>123750288</v>
       </c>
       <c r="H9" t="n">
         <v>2021</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B10" t="n">
-        <v>31.25</v>
+        <v>29.91562461853027</v>
       </c>
       <c r="C10" t="n">
-        <v>37.3125</v>
+        <v>34.96250152587891</v>
       </c>
       <c r="D10" t="n">
-        <v>30.07500076293945</v>
+        <v>29.01250076293945</v>
       </c>
       <c r="E10" t="n">
-        <v>33.703125</v>
+        <v>31.39687538146973</v>
       </c>
       <c r="F10" t="n">
-        <v>33.61801528930664</v>
+        <v>31.2569637298584</v>
       </c>
       <c r="G10" t="n">
-        <v>85658960</v>
+        <v>81330512</v>
       </c>
       <c r="H10" t="n">
         <v>2021</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B11" t="n">
-        <v>33.5</v>
+        <v>31.25</v>
       </c>
       <c r="C11" t="n">
-        <v>37.8125</v>
+        <v>37.3125</v>
       </c>
       <c r="D11" t="n">
-        <v>32.07187652587891</v>
+        <v>30.07500076293945</v>
       </c>
       <c r="E11" t="n">
-        <v>34.77187347412109</v>
+        <v>33.703125</v>
       </c>
       <c r="F11" t="n">
-        <v>34.68406677246094</v>
+        <v>33.61801528930664</v>
       </c>
       <c r="G11" t="n">
-        <v>181891088</v>
+        <v>85658960</v>
       </c>
       <c r="H11" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B12" t="n">
-        <v>35.05625152587891</v>
+        <v>33.5</v>
       </c>
       <c r="C12" t="n">
-        <v>38.80937576293945</v>
+        <v>37.8125</v>
       </c>
       <c r="D12" t="n">
-        <v>30.96249961853027</v>
+        <v>32.07187652587891</v>
       </c>
       <c r="E12" t="n">
-        <v>35.875</v>
+        <v>34.77187347412109</v>
       </c>
       <c r="F12" t="n">
-        <v>35.78440475463867</v>
+        <v>34.68406677246094</v>
       </c>
       <c r="G12" t="n">
-        <v>271007152</v>
+        <v>181891088</v>
       </c>
       <c r="H12" t="n">
         <v>2022</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B13" t="n">
+        <v>35.05625152587891</v>
+      </c>
+      <c r="C13" t="n">
+        <v>38.80937576293945</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30.96249961853027</v>
+      </c>
+      <c r="E13" t="n">
         <v>35.875</v>
       </c>
-      <c r="C13" t="n">
-        <v>45.96250152587891</v>
-      </c>
-      <c r="D13" t="n">
-        <v>32.625</v>
-      </c>
-      <c r="E13" t="n">
-        <v>42.59999847412109</v>
-      </c>
       <c r="F13" t="n">
-        <v>42.4924201965332</v>
+        <v>35.78440475463867</v>
       </c>
       <c r="G13" t="n">
-        <v>330011984</v>
+        <v>271007152</v>
       </c>
       <c r="H13" t="n">
         <v>2022</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B14" t="n">
-        <v>43.00624847412109</v>
+        <v>35.875</v>
       </c>
       <c r="C14" t="n">
-        <v>55.15000152587891</v>
+        <v>45.96250152587891</v>
       </c>
       <c r="D14" t="n">
-        <v>42.40625</v>
+        <v>32.625</v>
       </c>
       <c r="E14" t="n">
-        <v>51.14374923706055</v>
+        <v>42.59999847412109</v>
       </c>
       <c r="F14" t="n">
-        <v>51.01459884643555</v>
+        <v>42.4924201965332</v>
       </c>
       <c r="G14" t="n">
-        <v>398296824</v>
+        <v>330011984</v>
       </c>
       <c r="H14" t="n">
         <v>2022</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B15" t="n">
-        <v>50.625</v>
+        <v>43.00624847412109</v>
       </c>
       <c r="C15" t="n">
-        <v>59.5625</v>
+        <v>55.15000152587891</v>
       </c>
       <c r="D15" t="n">
-        <v>42.27500152587891</v>
+        <v>42.40625</v>
       </c>
       <c r="E15" t="n">
-        <v>47.59999847412109</v>
+        <v>51.14374923706055</v>
       </c>
       <c r="F15" t="n">
-        <v>47.47979736328125</v>
+        <v>51.01459884643555</v>
       </c>
       <c r="G15" t="n">
-        <v>349026760</v>
+        <v>398296824</v>
       </c>
       <c r="H15" t="n">
         <v>2022</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B16" t="n">
-        <v>48.3125</v>
+        <v>50.625</v>
       </c>
       <c r="C16" t="n">
-        <v>50.8125</v>
+        <v>59.5625</v>
       </c>
       <c r="D16" t="n">
-        <v>44.45624923706055</v>
+        <v>42.27500152587891</v>
       </c>
       <c r="E16" t="n">
-        <v>48.92499923706055</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="F16" t="n">
-        <v>48.80144882202148</v>
+        <v>47.47979736328125</v>
       </c>
       <c r="G16" t="n">
-        <v>177427632</v>
+        <v>349026760</v>
       </c>
       <c r="H16" t="n">
         <v>2022</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B17" t="n">
-        <v>49.02500152587891</v>
+        <v>48.3125</v>
       </c>
       <c r="C17" t="n">
-        <v>53.40625</v>
+        <v>50.8125</v>
       </c>
       <c r="D17" t="n">
-        <v>46.125</v>
+        <v>44.45624923706055</v>
       </c>
       <c r="E17" t="n">
-        <v>53.18125152587891</v>
+        <v>48.92499923706055</v>
       </c>
       <c r="F17" t="n">
-        <v>53.04695510864258</v>
+        <v>48.80144882202148</v>
       </c>
       <c r="G17" t="n">
-        <v>187177384</v>
+        <v>177427632</v>
       </c>
       <c r="H17" t="n">
         <v>2022</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B18" t="n">
-        <v>54.80625152587891</v>
+        <v>49.02500152587891</v>
       </c>
       <c r="C18" t="n">
-        <v>54.80625152587891</v>
+        <v>53.40625</v>
       </c>
       <c r="D18" t="n">
-        <v>45.58124923706055</v>
+        <v>46.125</v>
       </c>
       <c r="E18" t="n">
-        <v>48.84999847412109</v>
+        <v>53.18125152587891</v>
       </c>
       <c r="F18" t="n">
-        <v>48.72663879394531</v>
+        <v>53.04695510864258</v>
       </c>
       <c r="G18" t="n">
-        <v>327736608</v>
+        <v>187177384</v>
       </c>
       <c r="H18" t="n">
         <v>2022</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B19" t="n">
-        <v>48.75</v>
+        <v>54.80625152587891</v>
       </c>
       <c r="C19" t="n">
-        <v>54.45624923706055</v>
+        <v>54.80625152587891</v>
       </c>
       <c r="D19" t="n">
-        <v>45.00624847412109</v>
+        <v>45.58124923706055</v>
       </c>
       <c r="E19" t="n">
-        <v>47.01874923706055</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="F19" t="n">
-        <v>46.9000129699707</v>
+        <v>48.72663879394531</v>
       </c>
       <c r="G19" t="n">
-        <v>429376128</v>
+        <v>327736608</v>
       </c>
       <c r="H19" t="n">
         <v>2022</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1475,36 +1467,36 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B20" t="n">
-        <v>47.16249847412109</v>
+        <v>48.75</v>
       </c>
       <c r="C20" t="n">
-        <v>53.5</v>
+        <v>54.45624923706055</v>
       </c>
       <c r="D20" t="n">
-        <v>47.16249847412109</v>
+        <v>45.00624847412109</v>
       </c>
       <c r="E20" t="n">
-        <v>48.375</v>
+        <v>47.01874923706055</v>
       </c>
       <c r="F20" t="n">
-        <v>48.25284194946289</v>
+        <v>46.9000129699707</v>
       </c>
       <c r="G20" t="n">
-        <v>293470592</v>
+        <v>429376128</v>
       </c>
       <c r="H20" t="n">
         <v>2022</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1528,36 +1520,36 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B21" t="n">
-        <v>48.41249847412109</v>
+        <v>47.16249847412109</v>
       </c>
       <c r="C21" t="n">
-        <v>73.5</v>
+        <v>53.5</v>
       </c>
       <c r="D21" t="n">
-        <v>46.16875076293945</v>
+        <v>47.16249847412109</v>
       </c>
       <c r="E21" t="n">
-        <v>62.79999923706055</v>
+        <v>48.375</v>
       </c>
       <c r="F21" t="n">
-        <v>62.64141082763672</v>
+        <v>48.25284194946289</v>
       </c>
       <c r="G21" t="n">
-        <v>622158877</v>
+        <v>293470592</v>
       </c>
       <c r="H21" t="n">
         <v>2022</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B22" t="n">
-        <v>66</v>
+        <v>48.41249847412109</v>
       </c>
       <c r="C22" t="n">
-        <v>68.90000152587891</v>
+        <v>73.5</v>
       </c>
       <c r="D22" t="n">
-        <v>44.95000076293945</v>
+        <v>46.16875076293945</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70000076293945</v>
+        <v>62.79999923706055</v>
       </c>
       <c r="F22" t="n">
-        <v>52.56691741943359</v>
+        <v>62.64141082763672</v>
       </c>
       <c r="G22" t="n">
-        <v>496952634</v>
+        <v>622158877</v>
       </c>
       <c r="H22" t="n">
         <v>2022</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B23" t="n">
+        <v>66</v>
+      </c>
+      <c r="C23" t="n">
+        <v>68.90000152587891</v>
+      </c>
+      <c r="D23" t="n">
+        <v>44.95000076293945</v>
+      </c>
+      <c r="E23" t="n">
         <v>52.70000076293945</v>
       </c>
-      <c r="C23" t="n">
-        <v>56.40000152587891</v>
-      </c>
-      <c r="D23" t="n">
-        <v>48.40000152587891</v>
-      </c>
-      <c r="E23" t="n">
-        <v>52</v>
-      </c>
       <c r="F23" t="n">
-        <v>51.86868667602539</v>
+        <v>52.56691741943359</v>
       </c>
       <c r="G23" t="n">
-        <v>221341580</v>
+        <v>496952634</v>
       </c>
       <c r="H23" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B24" t="n">
-        <v>52.45000076293945</v>
+        <v>52.70000076293945</v>
       </c>
       <c r="C24" t="n">
-        <v>56.20000076293945</v>
+        <v>56.40000152587891</v>
       </c>
       <c r="D24" t="n">
-        <v>45.90000152587891</v>
+        <v>48.40000152587891</v>
       </c>
       <c r="E24" t="n">
-        <v>46.70000076293945</v>
+        <v>52</v>
       </c>
       <c r="F24" t="n">
-        <v>46.58206939697266</v>
+        <v>51.86868667602539</v>
       </c>
       <c r="G24" t="n">
-        <v>236801026</v>
+        <v>221341580</v>
       </c>
       <c r="H24" t="n">
         <v>2023</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B25" t="n">
-        <v>46.95000076293945</v>
+        <v>52.45000076293945</v>
       </c>
       <c r="C25" t="n">
-        <v>52.09999847412109</v>
+        <v>56.20000076293945</v>
       </c>
       <c r="D25" t="n">
-        <v>39.70000076293945</v>
+        <v>45.90000152587891</v>
       </c>
       <c r="E25" t="n">
-        <v>43.59999847412109</v>
+        <v>46.70000076293945</v>
       </c>
       <c r="F25" t="n">
-        <v>43.48989486694336</v>
+        <v>46.58206939697266</v>
       </c>
       <c r="G25" t="n">
-        <v>218108603</v>
+        <v>236801026</v>
       </c>
       <c r="H25" t="n">
         <v>2023</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,45 +1776,45 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B26" t="n">
-        <v>43.90000152587891</v>
+        <v>46.95000076293945</v>
       </c>
       <c r="C26" t="n">
-        <v>48.40000152587891</v>
+        <v>52.09999847412109</v>
       </c>
       <c r="D26" t="n">
-        <v>43.09999847412109</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="E26" t="n">
-        <v>48</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="F26" t="n">
-        <v>47.87878799438477</v>
+        <v>43.48989486694336</v>
       </c>
       <c r="G26" t="n">
-        <v>105223054</v>
+        <v>218108603</v>
       </c>
       <c r="H26" t="n">
         <v>2023</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,45 +1829,45 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B27" t="n">
+        <v>43.90000152587891</v>
+      </c>
+      <c r="C27" t="n">
+        <v>48.40000152587891</v>
+      </c>
+      <c r="D27" t="n">
+        <v>43.09999847412109</v>
+      </c>
+      <c r="E27" t="n">
         <v>48</v>
       </c>
-      <c r="C27" t="n">
-        <v>49.59999847412109</v>
-      </c>
-      <c r="D27" t="n">
-        <v>45.25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>45.95000076293945</v>
-      </c>
       <c r="F27" t="n">
-        <v>45.83396530151367</v>
+        <v>47.87878799438477</v>
       </c>
       <c r="G27" t="n">
-        <v>93104106</v>
+        <v>105223054</v>
       </c>
       <c r="H27" t="n">
         <v>2023</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B28" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" t="n">
-        <v>46.79999923706055</v>
+        <v>49.59999847412109</v>
       </c>
       <c r="D28" t="n">
-        <v>39.95000076293945</v>
+        <v>45.25</v>
       </c>
       <c r="E28" t="n">
-        <v>40.5</v>
+        <v>45.95000076293945</v>
       </c>
       <c r="F28" t="n">
-        <v>40.39772796630859</v>
+        <v>45.83396530151367</v>
       </c>
       <c r="G28" t="n">
-        <v>474288301</v>
+        <v>93104106</v>
       </c>
       <c r="H28" t="n">
         <v>2023</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B29" t="n">
-        <v>40.84999847412109</v>
+        <v>46</v>
       </c>
       <c r="C29" t="n">
-        <v>44.65000152587891</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="D29" t="n">
-        <v>40.29999923706055</v>
+        <v>39.95000076293945</v>
       </c>
       <c r="E29" t="n">
-        <v>40.54999923706055</v>
+        <v>40.5</v>
       </c>
       <c r="F29" t="n">
-        <v>40.44760131835938</v>
+        <v>40.39772796630859</v>
       </c>
       <c r="G29" t="n">
-        <v>495593054</v>
+        <v>474288301</v>
       </c>
       <c r="H29" t="n">
         <v>2023</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B30" t="n">
-        <v>41</v>
+        <v>40.84999847412109</v>
       </c>
       <c r="C30" t="n">
-        <v>42.54999923706055</v>
+        <v>44.65000152587891</v>
       </c>
       <c r="D30" t="n">
-        <v>37</v>
+        <v>40.29999923706055</v>
       </c>
       <c r="E30" t="n">
-        <v>41.54999923706055</v>
+        <v>40.54999923706055</v>
       </c>
       <c r="F30" t="n">
-        <v>41.44507598876953</v>
+        <v>40.44760131835938</v>
       </c>
       <c r="G30" t="n">
-        <v>375020328</v>
+        <v>495593054</v>
       </c>
       <c r="H30" t="n">
         <v>2023</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B31" t="n">
-        <v>41.65000152587891</v>
+        <v>41</v>
       </c>
       <c r="C31" t="n">
-        <v>45.5</v>
+        <v>42.54999923706055</v>
       </c>
       <c r="D31" t="n">
-        <v>37.20000076293945</v>
+        <v>37</v>
       </c>
       <c r="E31" t="n">
-        <v>40.54999923706055</v>
+        <v>41.54999923706055</v>
       </c>
       <c r="F31" t="n">
-        <v>40.44760131835938</v>
+        <v>41.44507598876953</v>
       </c>
       <c r="G31" t="n">
-        <v>492346833</v>
+        <v>375020328</v>
       </c>
       <c r="H31" t="n">
         <v>2023</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B32" t="n">
+        <v>41.65000152587891</v>
+      </c>
+      <c r="C32" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>37.20000076293945</v>
+      </c>
+      <c r="E32" t="n">
         <v>40.54999923706055</v>
       </c>
-      <c r="C32" t="n">
-        <v>44.09999847412109</v>
-      </c>
-      <c r="D32" t="n">
-        <v>37</v>
-      </c>
-      <c r="E32" t="n">
-        <v>39.54999923706055</v>
-      </c>
       <c r="F32" t="n">
-        <v>39.45012664794922</v>
+        <v>40.44760131835938</v>
       </c>
       <c r="G32" t="n">
-        <v>540538898</v>
+        <v>492346833</v>
       </c>
       <c r="H32" t="n">
         <v>2023</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B33" t="n">
+        <v>40.54999923706055</v>
+      </c>
+      <c r="C33" t="n">
+        <v>44.09999847412109</v>
+      </c>
+      <c r="D33" t="n">
+        <v>37</v>
+      </c>
+      <c r="E33" t="n">
         <v>39.54999923706055</v>
       </c>
-      <c r="C33" t="n">
-        <v>46.90000152587891</v>
-      </c>
-      <c r="D33" t="n">
-        <v>37.79999923706055</v>
-      </c>
-      <c r="E33" t="n">
-        <v>38.29999923706055</v>
-      </c>
       <c r="F33" t="n">
-        <v>38.20328140258789</v>
+        <v>39.45012664794922</v>
       </c>
       <c r="G33" t="n">
-        <v>496378320</v>
+        <v>540538898</v>
       </c>
       <c r="H33" t="n">
         <v>2023</v>
       </c>
       <c r="I33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B34" t="n">
-        <v>38.5</v>
+        <v>39.54999923706055</v>
       </c>
       <c r="C34" t="n">
-        <v>41.04999923706055</v>
+        <v>46.90000152587891</v>
       </c>
       <c r="D34" t="n">
-        <v>37.59999847412109</v>
+        <v>37.79999923706055</v>
       </c>
       <c r="E34" t="n">
-        <v>40.34999847412109</v>
+        <v>38.29999923706055</v>
       </c>
       <c r="F34" t="n">
-        <v>40.24810409545898</v>
+        <v>38.20328140258789</v>
       </c>
       <c r="G34" t="n">
-        <v>346055096</v>
+        <v>496378320</v>
       </c>
       <c r="H34" t="n">
         <v>2023</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2270,36 +2262,36 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B35" t="n">
-        <v>40.54999923706055</v>
+        <v>38.5</v>
       </c>
       <c r="C35" t="n">
-        <v>52.79999923706055</v>
+        <v>41.04999923706055</v>
       </c>
       <c r="D35" t="n">
-        <v>39.70000076293945</v>
+        <v>37.59999847412109</v>
       </c>
       <c r="E35" t="n">
-        <v>47.15000152587891</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="F35" t="n">
-        <v>47.15000152587891</v>
+        <v>40.24810409545898</v>
       </c>
       <c r="G35" t="n">
-        <v>1215523104</v>
+        <v>346055096</v>
       </c>
       <c r="H35" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2323,36 +2315,36 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B36" t="n">
-        <v>47.5</v>
+        <v>40.54999923706055</v>
       </c>
       <c r="C36" t="n">
-        <v>54</v>
+        <v>52.79999923706055</v>
       </c>
       <c r="D36" t="n">
-        <v>46.09999847412109</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="E36" t="n">
-        <v>48.34999847412109</v>
+        <v>47.15000152587891</v>
       </c>
       <c r="F36" t="n">
-        <v>48.34999847412109</v>
+        <v>47.15000152587891</v>
       </c>
       <c r="G36" t="n">
-        <v>906476958</v>
+        <v>1215523104</v>
       </c>
       <c r="H36" t="n">
         <v>2024</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,45 +2359,45 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B37" t="n">
-        <v>48.59999847412109</v>
+        <v>47.5</v>
       </c>
       <c r="C37" t="n">
-        <v>50.34999847412109</v>
+        <v>54</v>
       </c>
       <c r="D37" t="n">
-        <v>40.79999923706055</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="E37" t="n">
-        <v>42.79999923706055</v>
+        <v>48.34999847412109</v>
       </c>
       <c r="F37" t="n">
-        <v>42.79999923706055</v>
+        <v>48.34999847412109</v>
       </c>
       <c r="G37" t="n">
-        <v>425063062</v>
+        <v>906476958</v>
       </c>
       <c r="H37" t="n">
         <v>2024</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,45 +2412,45 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B38" t="n">
-        <v>43.25</v>
+        <v>48.59999847412109</v>
       </c>
       <c r="C38" t="n">
-        <v>47.79999923706055</v>
+        <v>50.34999847412109</v>
       </c>
       <c r="D38" t="n">
-        <v>42.59999847412109</v>
+        <v>40.79999923706055</v>
       </c>
       <c r="E38" t="n">
-        <v>46.54999923706055</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="F38" t="n">
-        <v>46.54999923706055</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="G38" t="n">
-        <v>321036626</v>
+        <v>425063062</v>
       </c>
       <c r="H38" t="n">
         <v>2024</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B39" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="C39" t="n">
+        <v>47.79999923706055</v>
+      </c>
+      <c r="D39" t="n">
+        <v>42.59999847412109</v>
+      </c>
+      <c r="E39" t="n">
         <v>46.54999923706055</v>
       </c>
-      <c r="C39" t="n">
-        <v>47.15000152587891</v>
-      </c>
-      <c r="D39" t="n">
-        <v>41.70000076293945</v>
-      </c>
-      <c r="E39" t="n">
-        <v>41.95000076293945</v>
-      </c>
       <c r="F39" t="n">
-        <v>41.95000076293945</v>
+        <v>46.54999923706055</v>
       </c>
       <c r="G39" t="n">
-        <v>266960496</v>
+        <v>321036626</v>
       </c>
       <c r="H39" t="n">
         <v>2024</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,56 +2532,514 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B40" t="n">
-        <v>43.5</v>
+        <v>46.54999923706055</v>
       </c>
       <c r="C40" t="n">
-        <v>43.79999923706055</v>
+        <v>47.15000152587891</v>
       </c>
       <c r="D40" t="n">
-        <v>38</v>
+        <v>41.70000076293945</v>
       </c>
       <c r="E40" t="n">
-        <v>41.75</v>
+        <v>41.95000076293945</v>
       </c>
       <c r="F40" t="n">
-        <v>41.75</v>
+        <v>41.95000076293945</v>
       </c>
       <c r="G40" t="n">
-        <v>53646922</v>
+        <v>266960496</v>
       </c>
       <c r="H40" t="n">
         <v>2024</v>
       </c>
       <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>18</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B41" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>43.79999923706055</v>
+      </c>
+      <c r="D41" t="n">
+        <v>38</v>
+      </c>
+      <c r="E41" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="F41" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="G41" t="n">
+        <v>53646922</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I41" t="n">
         <v>6</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>22</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="C42" t="n">
+        <v>21.83499908447266</v>
+      </c>
+      <c r="D42" t="n">
+        <v>19.83499908447266</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20.67000007629395</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>599101858</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>27</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="C43" t="n">
+        <v>21.375</v>
+      </c>
+      <c r="D43" t="n">
+        <v>19.39999961853027</v>
+      </c>
+      <c r="E43" t="n">
+        <v>19.86000061035156</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>635329936</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>31</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B44" t="n">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="C44" t="n">
+        <v>22.19000053405762</v>
+      </c>
+      <c r="D44" t="n">
+        <v>16.38999938964844</v>
+      </c>
+      <c r="E44" t="n">
+        <v>17.01000022888184</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>3310201916</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>35</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B45" t="n">
+        <v>17.04999923706055</v>
+      </c>
+      <c r="C45" t="n">
+        <v>17.375</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14.20499992370605</v>
+      </c>
+      <c r="E45" t="n">
+        <v>16.52000045776367</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>1003653786</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>40</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B46" t="n">
+        <v>16.6200008392334</v>
+      </c>
+      <c r="C46" t="n">
+        <v>19</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14.52499961853027</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17.98999977111816</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>692916488</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="n">
+        <v>11</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>44</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B47" t="n">
+        <v>17.79999923706055</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17.79999923706055</v>
+      </c>
+      <c r="D47" t="n">
+        <v>15.35999965667725</v>
+      </c>
+      <c r="E47" t="n">
+        <v>15.85999965667725</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>856877747</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>48</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B48" t="n">
+        <v>15.85999965667725</v>
+      </c>
+      <c r="C48" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="D48" t="n">
+        <v>13.14999961853027</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>1202412814</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.51000022888184</v>
+      </c>
+      <c r="C49" t="n">
+        <v>14.92000007629395</v>
+      </c>
+      <c r="D49" t="n">
+        <v>11.3100004196167</v>
+      </c>
+      <c r="E49" t="n">
+        <v>11.72000026702881</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>696705334</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B50" t="n">
+        <v>11.77000045776367</v>
+      </c>
+      <c r="C50" t="n">
+        <v>14.02000045776367</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10.80000019073486</v>
+      </c>
+      <c r="E50" t="n">
+        <v>11.71000003814697</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>988148276</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>9</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
